--- a/biology/Microbiologie/Cenarchaeum/Cenarchaeum.xlsx
+++ b/biology/Microbiologie/Cenarchaeum/Cenarchaeum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cenarchaeum est un genre d'archées de la famille des Cenarchaeaceae. Il contient notamment l'espèce Cenarchaeum symbiosum, un endosymbiote de l'éponge Axinella mexicana.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cenarchaeum a été créé en 1996 par les biologistes américains Christina M. Preston (d), Ke Ying Wu (d), Tadeusz Franciszek Molinski (d) et Edward Francis DeLong (d)[1],[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cenarchaeum a été créé en 1996 par les biologistes américains Christina M. Preston (d), Ke Ying Wu (d), Tadeusz Franciszek Molinski (d) et Edward Francis DeLong (d),. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (10 octobre 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (10 octobre 2022) :
 Cenarchaeum symbiosum Preston, Wu, Molinski &amp; De Long, 1996</t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Christina M. Preston, Ke Ying Wu, Tadeusz F. Molinski et Edward F. DeLong, « A psychrophilic crenarchaeon inhabits a marine sponge: Cenarchaeum symbiosum gen. nov., sp. nov », Proceedings of the National Academy of Sciences, Washington et États-Unis, NAS, vol. 93, no 13,‎ 25 juin 1996, p. 6241-6246 (ISSN 0027-8424 et 1091-6490, OCLC 43473694 et 1607201, PMID 8692799, PMCID 39006, DOI 10.1073/PNAS.93.13.6241, lire en ligne)</t>
         </is>
